--- a/sorted_dfs.xlsx
+++ b/sorted_dfs.xlsx
@@ -23462,7 +23462,7 @@
         <v>211.52</v>
       </c>
       <c r="F840">
-        <v>215.82</v>
+        <v>265</v>
       </c>
       <c r="G840">
         <v>125</v>
@@ -24382,7 +24382,7 @@
         <v>186.11</v>
       </c>
       <c r="F880">
-        <v>185.86</v>
+        <v>186</v>
       </c>
       <c r="G880">
         <v>96.8</v>

--- a/sorted_dfs.xlsx
+++ b/sorted_dfs.xlsx
@@ -23117,7 +23117,7 @@
         <v>211.52</v>
       </c>
       <c r="F840" t="n">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G840" t="n">
         <v>125</v>
